--- a/data/data_erp.xlsx
+++ b/data/data_erp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Basia 1 2/Dropbox/REMEMBER_analyses/rsos/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Basia/Dropbox/REMEMBER_analyses/rsos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B25BEE-751F-A548-A93D-F8597F9F1B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19387C8-A3BD-5F48-BCD7-C19AA3CDCDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{7FCCC2CD-7160-F94B-92D8-1BE44794DC03}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7FCCC2CD-7160-F94B-92D8-1BE44794DC03}"/>
   </bookViews>
   <sheets>
     <sheet name="nc" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -450,1142 +450,994 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEEC536-792F-AC42-9029-B4D900D7A865}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>-10.14284</v>
       </c>
       <c r="E2">
-        <v>-10.14284</v>
+        <v>-10.30992</v>
       </c>
       <c r="F2">
-        <v>-10.30992</v>
-      </c>
-      <c r="G2">
         <v>-12.66264</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>-12.875719999999999</v>
       </c>
       <c r="E3">
-        <v>-12.875719999999999</v>
+        <v>-11.77927</v>
       </c>
       <c r="F3">
-        <v>-11.77927</v>
-      </c>
-      <c r="G3">
         <v>-13.931100000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>-4.2905600000000002</v>
       </c>
       <c r="E4">
-        <v>-4.2905600000000002</v>
+        <v>-1.96929</v>
       </c>
       <c r="F4">
-        <v>-1.96929</v>
-      </c>
-      <c r="G4">
         <v>-7.3265900000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>-5.6620699999999999</v>
       </c>
       <c r="E5">
-        <v>-5.6620699999999999</v>
+        <v>-5.3045999999999998</v>
       </c>
       <c r="F5">
-        <v>-5.3045999999999998</v>
-      </c>
-      <c r="G5">
         <v>-15.57061</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>-3.0102600000000002</v>
       </c>
       <c r="E6">
-        <v>-3.0102600000000002</v>
+        <v>-5.4877700000000003</v>
       </c>
       <c r="F6">
-        <v>-5.4877700000000003</v>
-      </c>
-      <c r="G6">
         <v>-16.01342</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>-8.3829399999999996</v>
       </c>
       <c r="E7">
-        <v>-8.3829399999999996</v>
+        <v>-9.5753599999999999</v>
       </c>
       <c r="F7">
-        <v>-9.5753599999999999</v>
-      </c>
-      <c r="G7">
         <v>-13.861190000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>-10.12637</v>
       </c>
       <c r="E8">
-        <v>-10.12637</v>
+        <v>-9.5804200000000002</v>
       </c>
       <c r="F8">
-        <v>-9.5804200000000002</v>
-      </c>
-      <c r="G8">
         <v>-13.95383</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>-4.9191700000000003</v>
       </c>
       <c r="E9">
-        <v>-4.9191700000000003</v>
+        <v>-4.2615400000000001</v>
       </c>
       <c r="F9">
-        <v>-4.2615400000000001</v>
-      </c>
-      <c r="G9">
         <v>-14.306990000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>-11.553430000000001</v>
       </c>
       <c r="E10">
-        <v>-11.553430000000001</v>
+        <v>-8.8910199999999993</v>
       </c>
       <c r="F10">
-        <v>-8.8910199999999993</v>
-      </c>
-      <c r="G10">
         <v>-19.64837</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>-6.4415199999999997</v>
       </c>
       <c r="E11">
-        <v>-6.4415199999999997</v>
+        <v>-5.6036299999999999</v>
       </c>
       <c r="F11">
-        <v>-5.6036299999999999</v>
-      </c>
-      <c r="G11">
         <v>-8.8279899999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>-5.9518500000000003</v>
       </c>
       <c r="E12">
-        <v>-5.9518500000000003</v>
+        <v>-8.9651200000000006</v>
       </c>
       <c r="F12">
-        <v>-8.9651200000000006</v>
-      </c>
-      <c r="G12">
         <v>-14.24526</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>-5.1841200000000001</v>
       </c>
       <c r="E13">
-        <v>-5.1841200000000001</v>
+        <v>-12.47611</v>
       </c>
       <c r="F13">
-        <v>-12.47611</v>
-      </c>
-      <c r="G13">
         <v>-9.5574100000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>-0.53832999999999998</v>
       </c>
       <c r="E14">
-        <v>-0.53832999999999998</v>
+        <v>-11.44035</v>
       </c>
       <c r="F14">
-        <v>-11.44035</v>
-      </c>
-      <c r="G14">
         <v>-10.47758</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>-5.6981900000000003</v>
       </c>
       <c r="E15">
-        <v>-5.6981900000000003</v>
+        <v>-10.770099999999999</v>
       </c>
       <c r="F15">
-        <v>-10.770099999999999</v>
-      </c>
-      <c r="G15">
         <v>-8.3540299999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>-7.0731999999999999</v>
       </c>
       <c r="E16">
-        <v>-7.0731999999999999</v>
+        <v>-12.82199</v>
       </c>
       <c r="F16">
-        <v>-12.82199</v>
-      </c>
-      <c r="G16">
         <v>-13.19455</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>-5.2217799999999999</v>
       </c>
       <c r="E17">
-        <v>-5.2217799999999999</v>
+        <v>-13.92811</v>
       </c>
       <c r="F17">
-        <v>-13.92811</v>
-      </c>
-      <c r="G17">
         <v>-13.201589999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>-10.755000000000001</v>
       </c>
       <c r="E18">
-        <v>-10.755000000000001</v>
+        <v>-10.236179999999999</v>
       </c>
       <c r="F18">
-        <v>-10.236179999999999</v>
-      </c>
-      <c r="G18">
         <v>-13.159750000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>-1.6989700000000001</v>
       </c>
       <c r="E19">
-        <v>-1.6989700000000001</v>
+        <v>-10.95013</v>
       </c>
       <c r="F19">
-        <v>-10.95013</v>
-      </c>
-      <c r="G19">
         <v>-9.5636299999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>-4.0580699999999998</v>
       </c>
       <c r="E20">
-        <v>-4.0580699999999998</v>
+        <v>-4.4477700000000002</v>
       </c>
       <c r="F20">
-        <v>-4.4477700000000002</v>
-      </c>
-      <c r="G20">
         <v>-4.4978899999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>-13.4221</v>
       </c>
       <c r="E21">
-        <v>-13.4221</v>
+        <v>-17.283650000000002</v>
       </c>
       <c r="F21">
-        <v>-17.283650000000002</v>
-      </c>
-      <c r="G21">
         <v>-9.7859700000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>-8.0839999999999996</v>
       </c>
       <c r="E22">
-        <v>-8.0839999999999996</v>
+        <v>-10.238799999999999</v>
       </c>
       <c r="F22">
-        <v>-10.238799999999999</v>
-      </c>
-      <c r="G22">
         <v>-9.6622900000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>-8.1001200000000004</v>
       </c>
       <c r="E23">
-        <v>-8.1001200000000004</v>
+        <v>-6.3992000000000004</v>
       </c>
       <c r="F23">
-        <v>-6.3992000000000004</v>
-      </c>
-      <c r="G23">
         <v>-8.8178599999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>-6.2981800000000003</v>
       </c>
       <c r="E24">
-        <v>-6.2981800000000003</v>
+        <v>-12.306369999999999</v>
       </c>
       <c r="F24">
-        <v>-12.306369999999999</v>
-      </c>
-      <c r="G24">
         <v>-16.789529999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>-6.1581299999999999</v>
       </c>
       <c r="E25">
-        <v>-6.1581299999999999</v>
+        <v>-7.0034900000000002</v>
       </c>
       <c r="F25">
-        <v>-7.0034900000000002</v>
-      </c>
-      <c r="G25">
         <v>-8.5966900000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>-15.52744</v>
       </c>
       <c r="E26">
-        <v>-15.52744</v>
+        <v>-13.102969999999999</v>
       </c>
       <c r="F26">
-        <v>-13.102969999999999</v>
-      </c>
-      <c r="G26">
         <v>-17.400310000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>-12.017749999999999</v>
       </c>
       <c r="E27">
-        <v>-12.017749999999999</v>
+        <v>-10.278040000000001</v>
       </c>
       <c r="F27">
-        <v>-10.278040000000001</v>
-      </c>
-      <c r="G27">
         <v>-14.497170000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>-8.7397799999999997</v>
       </c>
       <c r="E28">
-        <v>-8.7397799999999997</v>
+        <v>-8.1647300000000005</v>
       </c>
       <c r="F28">
-        <v>-8.1647300000000005</v>
-      </c>
-      <c r="G28">
         <v>-10.84904</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>-1.27986</v>
       </c>
       <c r="E29">
-        <v>-1.27986</v>
+        <v>-1.88615</v>
       </c>
       <c r="F29">
-        <v>-1.88615</v>
-      </c>
-      <c r="G29">
         <v>-3.9419200000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>-3.33988</v>
       </c>
       <c r="E30">
-        <v>-3.33988</v>
+        <v>-7.3296700000000001</v>
       </c>
       <c r="F30">
-        <v>-7.3296700000000001</v>
-      </c>
-      <c r="G30">
         <v>-18.487349999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>-4.4062999999999999</v>
       </c>
       <c r="E31">
-        <v>-4.4062999999999999</v>
+        <v>-1.3224499999999999</v>
       </c>
       <c r="F31">
-        <v>-1.3224499999999999</v>
-      </c>
-      <c r="G31">
         <v>-9.0503800000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>-10.72437</v>
       </c>
       <c r="E32">
-        <v>-10.72437</v>
+        <v>-7.5813600000000001</v>
       </c>
       <c r="F32">
-        <v>-7.5813600000000001</v>
-      </c>
-      <c r="G32">
         <v>-12.0639</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>-3.2126199999999998</v>
       </c>
       <c r="E33">
-        <v>-3.2126199999999998</v>
+        <v>-6.6074900000000003</v>
       </c>
       <c r="F33">
-        <v>-6.6074900000000003</v>
-      </c>
-      <c r="G33">
         <v>-10.82024</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>-8.1215299999999999</v>
       </c>
       <c r="E34">
-        <v>-8.1215299999999999</v>
+        <v>-7.5999499999999998</v>
       </c>
       <c r="F34">
-        <v>-7.5999499999999998</v>
-      </c>
-      <c r="G34">
         <v>-11.355180000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>-0.47904999999999998</v>
       </c>
       <c r="E35">
-        <v>-0.47904999999999998</v>
+        <v>-4.4950200000000002</v>
       </c>
       <c r="F35">
-        <v>-4.4950200000000002</v>
-      </c>
-      <c r="G35">
         <v>-10.180720000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>-11.89705</v>
       </c>
       <c r="E36">
-        <v>-11.89705</v>
+        <v>-15.66817</v>
       </c>
       <c r="F36">
-        <v>-15.66817</v>
-      </c>
-      <c r="G36">
         <v>-14.885490000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>-3.4948899999999998</v>
       </c>
       <c r="E37">
-        <v>-3.4948899999999998</v>
+        <v>0.27139999999999997</v>
       </c>
       <c r="F37">
-        <v>0.27139999999999997</v>
-      </c>
-      <c r="G37">
         <v>-6.8802599999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>0.90751999999999999</v>
       </c>
       <c r="E38">
-        <v>0.90751999999999999</v>
+        <v>-7.8067599999999997</v>
       </c>
       <c r="F38">
-        <v>-7.8067599999999997</v>
-      </c>
-      <c r="G38">
         <v>-7.57979</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>-3.1054200000000001</v>
       </c>
       <c r="E39">
-        <v>-3.1054200000000001</v>
+        <v>-10.13017</v>
       </c>
       <c r="F39">
-        <v>-10.13017</v>
-      </c>
-      <c r="G39">
         <v>-3.2791199999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>-2.5928200000000001</v>
       </c>
       <c r="E40">
-        <v>-2.5928200000000001</v>
+        <v>-5.1213199999999999</v>
       </c>
       <c r="F40">
-        <v>-5.1213199999999999</v>
-      </c>
-      <c r="G40">
         <v>-5.2851699999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>-6.3692000000000002</v>
       </c>
       <c r="E41">
-        <v>-6.3692000000000002</v>
+        <v>-7.5858600000000003</v>
       </c>
       <c r="F41">
-        <v>-7.5858600000000003</v>
-      </c>
-      <c r="G41">
         <v>-7.49139</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>-5.6694699999999996</v>
       </c>
       <c r="E42">
-        <v>-5.6694699999999996</v>
+        <v>-10.38813</v>
       </c>
       <c r="F42">
-        <v>-10.38813</v>
-      </c>
-      <c r="G42">
         <v>-10.245509999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>-3.9716300000000002</v>
       </c>
       <c r="E43">
-        <v>-3.9716300000000002</v>
+        <v>-9.8472899999999992</v>
       </c>
       <c r="F43">
-        <v>-9.8472899999999992</v>
-      </c>
-      <c r="G43">
         <v>-4.1835000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>-8.3038100000000004</v>
       </c>
       <c r="E44">
-        <v>-8.3038100000000004</v>
+        <v>-11.46106</v>
       </c>
       <c r="F44">
-        <v>-11.46106</v>
-      </c>
-      <c r="G44">
         <v>-10.091379999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>-2.4426899999999998</v>
       </c>
       <c r="E45">
-        <v>-2.4426899999999998</v>
+        <v>-4.9283599999999996</v>
       </c>
       <c r="F45">
-        <v>-4.9283599999999996</v>
-      </c>
-      <c r="G45">
         <v>-3.6313599999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>-8.9735700000000005</v>
       </c>
       <c r="E46">
-        <v>-8.9735700000000005</v>
+        <v>-9.3761500000000009</v>
       </c>
       <c r="F46">
-        <v>-9.3761500000000009</v>
-      </c>
-      <c r="G46">
         <v>-17.479030000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>-10.06007</v>
       </c>
       <c r="E47">
-        <v>-10.06007</v>
+        <v>-13.412100000000001</v>
       </c>
       <c r="F47">
-        <v>-13.412100000000001</v>
-      </c>
-      <c r="G47">
         <v>-14.347</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>-4.7831700000000001</v>
       </c>
       <c r="E48">
-        <v>-4.7831700000000001</v>
+        <v>-11.00304</v>
       </c>
       <c r="F48">
-        <v>-11.00304</v>
-      </c>
-      <c r="G48">
         <v>-11.3901</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>0.88502999999999998</v>
       </c>
       <c r="E49">
-        <v>0.88502999999999998</v>
+        <v>-6.4816500000000001</v>
       </c>
       <c r="F49">
-        <v>-6.4816500000000001</v>
-      </c>
-      <c r="G49">
         <v>-6.0936899999999996</v>
       </c>
     </row>
